--- a/natmiOut/YoungD7/LR-pairs_lrc2p/H2-K1-Erbb2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/H2-K1-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>185.326265176842</v>
+        <v>198.4680276666666</v>
       </c>
       <c r="H2">
-        <v>185.326265176842</v>
+        <v>595.4040829999999</v>
       </c>
       <c r="I2">
-        <v>0.2859114587441058</v>
+        <v>0.2835009389723355</v>
       </c>
       <c r="J2">
-        <v>0.2859114587441058</v>
+        <v>0.2835009389723355</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.07006731853707</v>
+        <v>1.720171333333333</v>
       </c>
       <c r="N2">
-        <v>4.07006731853707</v>
+        <v>5.160514</v>
       </c>
       <c r="O2">
-        <v>0.579037915209188</v>
+        <v>0.1961456356393658</v>
       </c>
       <c r="P2">
-        <v>0.579037915209188</v>
+        <v>0.1961456356393658</v>
       </c>
       <c r="Q2">
-        <v>754.2903751627994</v>
+        <v>341.3990117754068</v>
       </c>
       <c r="R2">
-        <v>754.2903751627994</v>
+        <v>3072.591105978661</v>
       </c>
       <c r="S2">
-        <v>0.1655535750056048</v>
+        <v>0.0556074718790858</v>
       </c>
       <c r="T2">
-        <v>0.1655535750056048</v>
+        <v>0.0556074718790858</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>185.326265176842</v>
+        <v>198.4680276666666</v>
       </c>
       <c r="H3">
-        <v>185.326265176842</v>
+        <v>595.4040829999999</v>
       </c>
       <c r="I3">
-        <v>0.2859114587441058</v>
+        <v>0.2835009389723355</v>
       </c>
       <c r="J3">
-        <v>0.2859114587441058</v>
+        <v>0.2835009389723355</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.95894962773092</v>
+        <v>4.076388666666666</v>
       </c>
       <c r="N3">
-        <v>2.95894962773092</v>
+        <v>12.229166</v>
       </c>
       <c r="O3">
-        <v>0.420962084790812</v>
+        <v>0.464817562438416</v>
       </c>
       <c r="P3">
-        <v>0.420962084790812</v>
+        <v>0.464817562438416</v>
       </c>
       <c r="Q3">
-        <v>548.3710833537784</v>
+        <v>809.0328186760863</v>
       </c>
       <c r="R3">
-        <v>548.3710833537784</v>
+        <v>7281.295368084777</v>
       </c>
       <c r="S3">
-        <v>0.120357883738501</v>
+        <v>0.1317762154021231</v>
       </c>
       <c r="T3">
-        <v>0.120357883738501</v>
+        <v>0.1317762154021231</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>73.7888195374957</v>
+        <v>198.4680276666666</v>
       </c>
       <c r="H4">
-        <v>73.7888195374957</v>
+        <v>595.4040829999999</v>
       </c>
       <c r="I4">
-        <v>0.1138374477726604</v>
+        <v>0.2835009389723355</v>
       </c>
       <c r="J4">
-        <v>0.1138374477726604</v>
+        <v>0.2835009389723355</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.07006731853707</v>
+        <v>2.973308</v>
       </c>
       <c r="N4">
-        <v>4.07006731853707</v>
+        <v>8.919924</v>
       </c>
       <c r="O4">
-        <v>0.579037915209188</v>
+        <v>0.3390368019222182</v>
       </c>
       <c r="P4">
-        <v>0.579037915209188</v>
+        <v>0.3390368019222182</v>
       </c>
       <c r="Q4">
-        <v>300.3254628729909</v>
+        <v>590.1065744055212</v>
       </c>
       <c r="R4">
-        <v>300.3254628729909</v>
+        <v>5310.959169649691</v>
       </c>
       <c r="S4">
-        <v>0.06591619843101612</v>
+        <v>0.0961172516911266</v>
       </c>
       <c r="T4">
-        <v>0.06591619843101612</v>
+        <v>0.09611725169112659</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>73.7888195374957</v>
+        <v>74.01845299999999</v>
       </c>
       <c r="H5">
-        <v>73.7888195374957</v>
+        <v>222.055359</v>
       </c>
       <c r="I5">
-        <v>0.1138374477726604</v>
+        <v>0.1057313924740739</v>
       </c>
       <c r="J5">
-        <v>0.1138374477726604</v>
+        <v>0.1057313924740739</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.95894962773092</v>
+        <v>1.720171333333333</v>
       </c>
       <c r="N5">
-        <v>2.95894962773092</v>
+        <v>5.160514</v>
       </c>
       <c r="O5">
-        <v>0.420962084790812</v>
+        <v>0.1961456356393658</v>
       </c>
       <c r="P5">
-        <v>0.420962084790812</v>
+        <v>0.1961456356393658</v>
       </c>
       <c r="Q5">
-        <v>218.3374001011769</v>
+        <v>127.3244209882807</v>
       </c>
       <c r="R5">
-        <v>218.3374001011769</v>
+        <v>1145.919788894526</v>
       </c>
       <c r="S5">
-        <v>0.04792124934164432</v>
+        <v>0.02073875118386247</v>
       </c>
       <c r="T5">
-        <v>0.04792124934164432</v>
+        <v>0.02073875118386247</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>368.435301697048</v>
+        <v>74.01845299999999</v>
       </c>
       <c r="H6">
-        <v>368.435301697048</v>
+        <v>222.055359</v>
       </c>
       <c r="I6">
-        <v>0.5684022955974983</v>
+        <v>0.1057313924740739</v>
       </c>
       <c r="J6">
-        <v>0.5684022955974983</v>
+        <v>0.1057313924740739</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.07006731853707</v>
+        <v>4.076388666666666</v>
       </c>
       <c r="N6">
-        <v>4.07006731853707</v>
+        <v>12.229166</v>
       </c>
       <c r="O6">
-        <v>0.579037915209188</v>
+        <v>0.464817562438416</v>
       </c>
       <c r="P6">
-        <v>0.579037915209188</v>
+        <v>0.464817562438416</v>
       </c>
       <c r="Q6">
-        <v>1499.556480432501</v>
+        <v>301.7279829333993</v>
       </c>
       <c r="R6">
-        <v>1499.556480432501</v>
+        <v>2715.551846400594</v>
       </c>
       <c r="S6">
-        <v>0.329126480242892</v>
+        <v>0.0491458081230185</v>
       </c>
       <c r="T6">
-        <v>0.329126480242892</v>
+        <v>0.0491458081230185</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>368.435301697048</v>
+        <v>74.01845299999999</v>
       </c>
       <c r="H7">
-        <v>368.435301697048</v>
+        <v>222.055359</v>
       </c>
       <c r="I7">
-        <v>0.5684022955974983</v>
+        <v>0.1057313924740739</v>
       </c>
       <c r="J7">
-        <v>0.5684022955974983</v>
+        <v>0.1057313924740739</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.95894962773092</v>
+        <v>2.973308</v>
       </c>
       <c r="N7">
-        <v>2.95894962773092</v>
+        <v>8.919924</v>
       </c>
       <c r="O7">
-        <v>0.420962084790812</v>
+        <v>0.3390368019222182</v>
       </c>
       <c r="P7">
-        <v>0.420962084790812</v>
+        <v>0.3390368019222182</v>
       </c>
       <c r="Q7">
-        <v>1090.181498799409</v>
+        <v>220.079658452524</v>
       </c>
       <c r="R7">
-        <v>1090.181498799409</v>
+        <v>1980.716926072716</v>
       </c>
       <c r="S7">
-        <v>0.2392758153546063</v>
+        <v>0.0358468331671929</v>
       </c>
       <c r="T7">
-        <v>0.2392758153546063</v>
+        <v>0.03584683316719289</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.6442189776596</v>
+        <v>405.8333793333334</v>
       </c>
       <c r="H8">
-        <v>20.6442189776596</v>
+        <v>1217.500138</v>
       </c>
       <c r="I8">
-        <v>0.03184879788573522</v>
+        <v>0.5797112283523728</v>
       </c>
       <c r="J8">
-        <v>0.03184879788573522</v>
+        <v>0.5797112283523728</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>4.07006731853707</v>
+        <v>1.720171333333333</v>
       </c>
       <c r="N8">
-        <v>4.07006731853707</v>
+        <v>5.160514</v>
       </c>
       <c r="O8">
-        <v>0.579037915209188</v>
+        <v>0.1961456356393658</v>
       </c>
       <c r="P8">
-        <v>0.579037915209188</v>
+        <v>0.1961456356393658</v>
       </c>
       <c r="Q8">
-        <v>84.02336097769512</v>
+        <v>698.1029452389924</v>
       </c>
       <c r="R8">
-        <v>84.02336097769512</v>
+        <v>6282.926507150933</v>
       </c>
       <c r="S8">
-        <v>0.01844166152967492</v>
+        <v>0.1137078273724537</v>
       </c>
       <c r="T8">
-        <v>0.01844166152967492</v>
+        <v>0.1137078273724537</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>405.8333793333334</v>
+      </c>
+      <c r="H9">
+        <v>1217.500138</v>
+      </c>
+      <c r="I9">
+        <v>0.5797112283523728</v>
+      </c>
+      <c r="J9">
+        <v>0.5797112283523728</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.076388666666666</v>
+      </c>
+      <c r="N9">
+        <v>12.229166</v>
+      </c>
+      <c r="O9">
+        <v>0.464817562438416</v>
+      </c>
+      <c r="P9">
+        <v>0.464817562438416</v>
+      </c>
+      <c r="Q9">
+        <v>1654.334588069434</v>
+      </c>
+      <c r="R9">
+        <v>14889.01129262491</v>
+      </c>
+      <c r="S9">
+        <v>0.2694599600809299</v>
+      </c>
+      <c r="T9">
+        <v>0.2694599600809299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>20.6442189776596</v>
-      </c>
-      <c r="H9">
-        <v>20.6442189776596</v>
-      </c>
-      <c r="I9">
-        <v>0.03184879788573522</v>
-      </c>
-      <c r="J9">
-        <v>0.03184879788573522</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.95894962773092</v>
-      </c>
-      <c r="N9">
-        <v>2.95894962773092</v>
-      </c>
-      <c r="O9">
-        <v>0.420962084790812</v>
-      </c>
-      <c r="P9">
-        <v>0.420962084790812</v>
-      </c>
-      <c r="Q9">
-        <v>61.08520405874147</v>
-      </c>
-      <c r="R9">
-        <v>61.08520405874147</v>
-      </c>
-      <c r="S9">
-        <v>0.0134071363560603</v>
-      </c>
-      <c r="T9">
-        <v>0.0134071363560603</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>405.8333793333334</v>
+      </c>
+      <c r="H10">
+        <v>1217.500138</v>
+      </c>
+      <c r="I10">
+        <v>0.5797112283523728</v>
+      </c>
+      <c r="J10">
+        <v>0.5797112283523728</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.973308</v>
+      </c>
+      <c r="N10">
+        <v>8.919924</v>
+      </c>
+      <c r="O10">
+        <v>0.3390368019222182</v>
+      </c>
+      <c r="P10">
+        <v>0.3390368019222182</v>
+      </c>
+      <c r="Q10">
+        <v>1206.667633438835</v>
+      </c>
+      <c r="R10">
+        <v>10860.00870094951</v>
+      </c>
+      <c r="S10">
+        <v>0.1965434408989892</v>
+      </c>
+      <c r="T10">
+        <v>0.1965434408989892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>21.741411</v>
+      </c>
+      <c r="H11">
+        <v>65.224233</v>
+      </c>
+      <c r="I11">
+        <v>0.03105644020121776</v>
+      </c>
+      <c r="J11">
+        <v>0.03105644020121776</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>1.720171333333333</v>
+      </c>
+      <c r="N11">
+        <v>5.160514</v>
+      </c>
+      <c r="O11">
+        <v>0.1961456356393658</v>
+      </c>
+      <c r="P11">
+        <v>0.1961456356393658</v>
+      </c>
+      <c r="Q11">
+        <v>37.398951948418</v>
+      </c>
+      <c r="R11">
+        <v>336.590567535762</v>
+      </c>
+      <c r="S11">
+        <v>0.006091585203963809</v>
+      </c>
+      <c r="T11">
+        <v>0.006091585203963809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>21.741411</v>
+      </c>
+      <c r="H12">
+        <v>65.224233</v>
+      </c>
+      <c r="I12">
+        <v>0.03105644020121776</v>
+      </c>
+      <c r="J12">
+        <v>0.03105644020121776</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.076388666666666</v>
+      </c>
+      <c r="N12">
+        <v>12.229166</v>
+      </c>
+      <c r="O12">
+        <v>0.464817562438416</v>
+      </c>
+      <c r="P12">
+        <v>0.464817562438416</v>
+      </c>
+      <c r="Q12">
+        <v>88.626441397742</v>
+      </c>
+      <c r="R12">
+        <v>797.6379725796779</v>
+      </c>
+      <c r="S12">
+        <v>0.01443557883234447</v>
+      </c>
+      <c r="T12">
+        <v>0.01443557883234447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>21.741411</v>
+      </c>
+      <c r="H13">
+        <v>65.224233</v>
+      </c>
+      <c r="I13">
+        <v>0.03105644020121776</v>
+      </c>
+      <c r="J13">
+        <v>0.03105644020121776</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.973308</v>
+      </c>
+      <c r="N13">
+        <v>8.919924</v>
+      </c>
+      <c r="O13">
+        <v>0.3390368019222182</v>
+      </c>
+      <c r="P13">
+        <v>0.3390368019222182</v>
+      </c>
+      <c r="Q13">
+        <v>64.643911257588</v>
+      </c>
+      <c r="R13">
+        <v>581.795201318292</v>
+      </c>
+      <c r="S13">
+        <v>0.01052927616490948</v>
+      </c>
+      <c r="T13">
+        <v>0.01052927616490948</v>
       </c>
     </row>
   </sheetData>
